--- a/doc/Team2Report.xlsx
+++ b/doc/Team2Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kybeth/Documents/GitHub/SSW555-GEDCOM-Develop-Team02/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kybeth/Documents/GitHub/SSW555-GEDCOM-Develop-Team02/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA87816-F1CB-784B-999D-005734CFB9AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9044EBB0-F109-0248-934B-6A879EF05670}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30660" yWindow="6460" windowWidth="28560" windowHeight="17300" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="700" windowWidth="28560" windowHeight="17300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="227">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -158,392 +158,379 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>GitHub Username</t>
+  </si>
+  <si>
+    <t>GitHub Repository:</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
     <t>Coding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Review Results</t>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>GitHub Username</t>
-  </si>
-  <si>
-    <t>GitHub Repository:</t>
-  </si>
-  <si>
-    <t>Bring pizza to our meetings</t>
-  </si>
-  <si>
-    <t>Leaving leftover pizza on the counter</t>
-  </si>
-  <si>
-    <t>Bring silverware for everyone</t>
-  </si>
-  <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t>Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t>Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t>There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t>All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t>Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t>Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t>List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
-  </si>
-  <si>
-    <t>Story Name</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Birth before death</t>
-  </si>
-  <si>
-    <t>Birth before marriage</t>
-  </si>
-  <si>
-    <t>Marriage before divorce</t>
-  </si>
-  <si>
-    <t>Marriage before death</t>
-  </si>
-  <si>
-    <t>Divorce before death</t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t>Birth before death of parents</t>
-  </si>
-  <si>
-    <t>Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t>Marriage after 14</t>
-  </si>
-  <si>
-    <t>No bigamy</t>
-  </si>
-  <si>
-    <t>Parents not too old</t>
-  </si>
-  <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t>Male last names</t>
-  </si>
-  <si>
-    <t>Siblings should not marry</t>
-  </si>
-  <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
-    <t>Correct gender for role</t>
-  </si>
-  <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t>Unique IDs</t>
-  </si>
-  <si>
-    <t>Unique name and birth date</t>
-  </si>
-  <si>
-    <t>Unique families by spouses</t>
-  </si>
-  <si>
-    <t>Unique first names in families</t>
-  </si>
-  <si>
-    <t>Corresponding entries</t>
-  </si>
-  <si>
-    <t>Include individual ages</t>
-  </si>
-  <si>
-    <t>Order siblings by age</t>
-  </si>
-  <si>
-    <t>List deceased</t>
-  </si>
-  <si>
-    <t>List living married</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>List multiple births</t>
-  </si>
-  <si>
-    <t>List orphans</t>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
-    <t>List recent deaths</t>
-  </si>
-  <si>
-    <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>List large age differences</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-  </si>
-  <si>
-    <t>US01</t>
-  </si>
-  <si>
-    <t>US02</t>
-  </si>
-  <si>
-    <t>US03</t>
-  </si>
-  <si>
-    <t>US04</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <t>US07</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>US14</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>US16</t>
-  </si>
-  <si>
-    <t>US17</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>US22</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>US24</t>
-  </si>
-  <si>
-    <t>US25</t>
-  </si>
-  <si>
-    <t>US26</t>
-  </si>
-  <si>
-    <t>US27</t>
-  </si>
-  <si>
-    <t>US28</t>
-  </si>
-  <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>US30</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>US32</t>
-  </si>
-  <si>
-    <t>US33</t>
-  </si>
-  <si>
-    <t>US34</t>
-  </si>
-  <si>
-    <t>US35</t>
-  </si>
-  <si>
-    <t>US36</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>Coding</t>
   </si>
   <si>
     <t>Dates before current date</t>
@@ -742,6 +729,24 @@
   </si>
   <si>
     <t>https://github.com/Kybeth/SSW555-GEDCOM-Develop-Team02</t>
+  </si>
+  <si>
+    <t>20(pair)</t>
+  </si>
+  <si>
+    <t>45(pair)</t>
+  </si>
+  <si>
+    <t>Communicate often and encourage each other</t>
+  </si>
+  <si>
+    <t>Take responsibility bravely when not doing well</t>
+  </si>
+  <si>
+    <t>Do things late before the ddl</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -793,7 +798,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -803,6 +808,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,7 +894,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -921,6 +932,14 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1169,10 +1188,10 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40442</c:v>
+                  <c:v>42263</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40455</c:v>
+                  <c:v>42277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,7 +1203,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
@@ -2104,100 +2123,100 @@
         <v>22</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" t="s">
         <v>215</v>
-      </c>
-      <c r="E2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" t="s">
         <v>216</v>
-      </c>
-      <c r="E3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" t="s">
         <v>217</v>
-      </c>
-      <c r="E5" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2214,8 +2233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2249,16 +2268,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2266,16 +2285,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2283,16 +2302,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2300,16 +2319,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2317,16 +2336,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2334,16 +2353,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -2351,16 +2370,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -2368,16 +2387,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2385,16 +2404,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -2402,16 +2421,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -2419,16 +2438,16 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -2436,16 +2455,16 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -2453,16 +2472,16 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -2470,16 +2489,16 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -2487,16 +2506,16 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -2504,16 +2523,16 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -2521,16 +2540,16 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -2538,16 +2557,16 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -2555,16 +2574,16 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -2572,16 +2591,16 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -2589,16 +2608,16 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -2606,16 +2625,16 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -2623,16 +2642,16 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -2640,16 +2659,16 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -2657,16 +2676,16 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -2674,16 +2693,16 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -2691,16 +2710,16 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -2708,16 +2727,16 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -2725,16 +2744,16 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -2742,16 +2761,16 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -2759,16 +2778,16 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -2776,16 +2795,16 @@
         <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -2793,16 +2812,16 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -2810,16 +2829,16 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -2827,16 +2846,16 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -2844,16 +2863,16 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -2861,16 +2880,16 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -2878,16 +2897,16 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -2895,16 +2914,16 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -2912,16 +2931,16 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2951,37 +2970,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -3004,7 +3023,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B15" s="13">
         <v>41065</v>
@@ -3020,7 +3039,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B16" s="13">
         <v>41078</v>
@@ -3045,7 +3064,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B17" s="13">
         <v>41092</v>
@@ -3070,7 +3089,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B18" s="13">
         <v>41106</v>
@@ -3095,7 +3114,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B19" s="13">
         <v>41120</v>
@@ -3130,7 +3149,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3165,10 +3184,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
-        <v>40442</v>
+        <v>42263</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3176,24 +3195,23 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>40455</v>
+        <v>42277</v>
       </c>
       <c r="B3">
         <v>30</v>
       </c>
       <c r="C3">
-        <f>B2-B3</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="F3" s="9">
         <f>(D3-D2)/E3*60</f>
-        <v>125.00000000000001</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3208,8 +3226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3261,36 +3279,36 @@
         <v>17</v>
       </c>
       <c r="K1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q1" s="16" t="s">
         <v>185</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -3298,20 +3316,30 @@
       <c r="F2">
         <v>60</v>
       </c>
-      <c r="Q2" s="18"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="24"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -3319,23 +3347,44 @@
       <c r="F3">
         <v>60</v>
       </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B4"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -3343,19 +3392,30 @@
       <c r="F5">
         <v>50</v>
       </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -3363,23 +3423,44 @@
       <c r="F6">
         <v>60</v>
       </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B7"/>
-      <c r="I7" s="7"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -3387,19 +3468,30 @@
       <c r="F8">
         <v>70</v>
       </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -3407,29 +3499,59 @@
       <c r="F9">
         <v>70</v>
       </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B10"/>
-      <c r="I10" s="7"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="E11">
         <v>50</v>
       </c>
       <c r="F11">
         <v>60</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>222</v>
+      </c>
+      <c r="I11" s="6">
+        <v>42274</v>
       </c>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
@@ -3439,22 +3561,31 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="E12">
         <v>40</v>
       </c>
       <c r="F12">
         <v>60</v>
+      </c>
+      <c r="G12">
+        <v>14</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12" s="6">
+        <v>42276</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -3463,16 +3594,16 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="E14">
         <v>40</v>
@@ -3481,45 +3612,45 @@
         <v>60</v>
       </c>
       <c r="G14">
-        <v>120</v>
-      </c>
-      <c r="H14">
-        <v>90</v>
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>221</v>
       </c>
       <c r="I14" s="6">
-        <v>40444</v>
+        <v>42274</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="E15">
         <v>30</v>
@@ -3527,10 +3658,19 @@
       <c r="F15">
         <v>60</v>
       </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15" s="6">
+        <v>42277</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
@@ -3539,27 +3679,27 @@
     </row>
     <row r="20" spans="2:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="14" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="28" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="28" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="28" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3571,13 +3711,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="E2" sqref="E2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
@@ -3606,6 +3750,182 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8">
+        <v>13</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3709,7 +4029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A41" sqref="A41:B41"/>
     </sheetView>
   </sheetViews>
@@ -3721,475 +4041,475 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B39" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B40" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Team2Report.xlsx
+++ b/doc/Team2Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kybeth/Documents/GitHub/SSW555-GEDCOM-Develop-Team02/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9044EBB0-F109-0248-934B-6A879EF05670}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAE7F6E-7AEF-B246-B24F-799AA9F19C3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="700" windowWidth="28560" windowHeight="17300" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="700" windowWidth="28560" windowHeight="17300" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2233,7 +2233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -3713,8 +3713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F7"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/doc/Team2Report.xlsx
+++ b/doc/Team2Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10210"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vignesh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kybeth/Documents/GitHub/SSW555-GEDCOM-Develop-Team02/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE61EB0-B78A-45ED-93B9-1C19E7A6C70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77076270-BFE7-3F47-AFC1-589414B11C0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28380" windowHeight="15580" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,18 +23,10 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId8"/>
     <sheet name="Stories" sheetId="11" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -44,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="221">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -610,15 +602,6 @@
     <t>Source File</t>
   </si>
   <si>
-    <t>gedcom.py</t>
-  </si>
-  <si>
-    <t>us03_birth_b4_death</t>
-  </si>
-  <si>
-    <t>33-36</t>
-  </si>
-  <si>
     <t>Test File</t>
   </si>
   <si>
@@ -632,15 +615,6 @@
   </si>
   <si>
     <t>Test lines</t>
-  </si>
-  <si>
-    <t>test_us03</t>
-  </si>
-  <si>
-    <t>29-34</t>
-  </si>
-  <si>
-    <t>test03.py</t>
   </si>
   <si>
     <t>Vignesh Mohan</t>
@@ -806,7 +780,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -816,18 +790,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,7 +870,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -946,15 +908,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1063,7 +1016,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1134,7 +1087,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2115,16 +2068,16 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="31.36328125" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2141,101 +2094,101 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E5" t="s">
         <v>211</v>
       </c>
-      <c r="E2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="19" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C6" s="19" t="s">
         <v>199</v>
       </c>
-      <c r="D3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="D6" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E6" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="E5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D5">
+  <sortState ref="A3:D5">
     <sortCondition ref="C3:C5"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2252,16 +2205,16 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.36328125" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" customWidth="1"/>
-    <col min="3" max="3" width="29.6328125" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.83203125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2278,7 +2231,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2289,13 +2242,13 @@
         <v>155</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2306,13 +2259,13 @@
         <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2323,13 +2276,13 @@
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2340,13 +2293,13 @@
         <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2357,13 +2310,13 @@
         <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2374,13 +2327,13 @@
         <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2391,13 +2344,13 @@
         <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2408,13 +2361,13 @@
         <v>156</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2425,13 +2378,13 @@
         <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2442,13 +2395,13 @@
         <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2459,13 +2412,13 @@
         <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2476,13 +2429,13 @@
         <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2493,13 +2446,13 @@
         <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2510,13 +2463,13 @@
         <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2527,13 +2480,13 @@
         <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2544,13 +2497,13 @@
         <v>82</v>
       </c>
       <c r="D17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2561,13 +2514,13 @@
         <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2578,13 +2531,13 @@
         <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2595,13 +2548,13 @@
         <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2612,13 +2565,13 @@
         <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2629,13 +2582,13 @@
         <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2646,13 +2599,13 @@
         <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2663,13 +2616,13 @@
         <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2680,13 +2633,13 @@
         <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2697,13 +2650,13 @@
         <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2714,13 +2667,13 @@
         <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2731,13 +2684,13 @@
         <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2748,13 +2701,13 @@
         <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2765,13 +2718,13 @@
         <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2782,13 +2735,13 @@
         <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>4</v>
       </c>
@@ -2799,13 +2752,13 @@
         <v>98</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>4</v>
       </c>
@@ -2816,13 +2769,13 @@
         <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2833,13 +2786,13 @@
         <v>100</v>
       </c>
       <c r="D34" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2850,13 +2803,13 @@
         <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2867,13 +2820,13 @@
         <v>101</v>
       </c>
       <c r="D36" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2884,13 +2837,13 @@
         <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2901,13 +2854,13 @@
         <v>103</v>
       </c>
       <c r="D38" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2918,13 +2871,13 @@
         <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>4</v>
       </c>
@@ -2935,13 +2888,13 @@
         <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>4</v>
       </c>
@@ -2952,10 +2905,10 @@
         <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2973,47 +2926,47 @@
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="7"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>160</v>
       </c>
@@ -3036,7 +2989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>161</v>
       </c>
@@ -3052,7 +3005,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>162</v>
       </c>
@@ -3077,7 +3030,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>163</v>
       </c>
@@ -3102,7 +3055,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>164</v>
       </c>
@@ -3127,7 +3080,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>165</v>
       </c>
@@ -3163,21 +3116,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="2"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3197,7 +3150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42263</v>
       </c>
@@ -3208,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42277</v>
       </c>
@@ -3222,11 +3175,11 @@
         <v>100</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>315</v>
       </c>
       <c r="F3" s="9">
         <f>(D3-D2)/E3*60</f>
-        <v>60</v>
+        <v>19.047619047619047</v>
       </c>
     </row>
   </sheetData>
@@ -3241,31 +3194,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:Q10"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.1796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.81640625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="10.1796875" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.453125" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1796875" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="14" style="17" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3297,22 +3250,22 @@
         <v>177</v>
       </c>
       <c r="L1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q1" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="M1" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -3320,7 +3273,7 @@
         <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>154</v>
@@ -3331,19 +3284,16 @@
       <c r="F2">
         <v>60</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="24"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="Q2" s="18"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -3351,7 +3301,7 @@
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>154</v>
@@ -3362,33 +3312,19 @@
       <c r="F3">
         <v>60</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B4"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -3396,7 +3332,7 @@
         <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>154</v>
@@ -3407,19 +3343,15 @@
       <c r="F5">
         <v>50</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>35</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -3427,7 +3359,7 @@
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>154</v>
@@ -3438,33 +3370,19 @@
       <c r="F6">
         <v>60</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B7"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -3472,7 +3390,7 @@
         <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>154</v>
@@ -3483,19 +3401,21 @@
       <c r="F8">
         <v>70</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8" s="7">
+        <v>42247</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -3503,7 +3423,7 @@
         <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>154</v>
@@ -3514,33 +3434,25 @@
       <c r="F9">
         <v>70</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9" s="7">
+        <v>42247</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B10"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -3548,10 +3460,10 @@
         <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D11" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -3563,7 +3475,7 @@
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I11" s="6">
         <v>42274</v>
@@ -3574,7 +3486,7 @@
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>119</v>
       </c>
@@ -3582,10 +3494,10 @@
         <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E12">
         <v>40</v>
@@ -3603,11 +3515,11 @@
         <v>42276</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B13"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -3615,10 +3527,10 @@
         <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E14">
         <v>40</v>
@@ -3630,31 +3542,19 @@
         <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I14" s="6">
         <v>42274</v>
       </c>
-      <c r="K14" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="P14" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q14" s="18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -3662,10 +3562,10 @@
         <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E15">
         <v>30</v>
@@ -3683,38 +3583,38 @@
         <v>42277</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="5"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="25.2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" ht="28" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="25.2" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="28" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3728,17 +3628,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="27.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3767,7 +3667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -3775,19 +3675,20 @@
         <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E2" s="25">
+        <v>188</v>
+      </c>
+      <c r="E2" s="20">
         <v>15</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="20">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -3795,19 +3696,20 @@
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="25">
+        <v>188</v>
+      </c>
+      <c r="E3" s="20">
         <v>15</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="20">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -3815,15 +3717,20 @@
         <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="E4" s="20">
+        <v>15</v>
+      </c>
+      <c r="F4" s="20">
+        <v>40</v>
+      </c>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -3831,15 +3738,20 @@
         <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="E5" s="20">
+        <v>15</v>
+      </c>
+      <c r="F5" s="20">
+        <v>40</v>
+      </c>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -3847,15 +3759,20 @@
         <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="E6" s="20">
+        <v>15</v>
+      </c>
+      <c r="F6" s="20">
+        <v>40</v>
+      </c>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -3863,15 +3780,20 @@
         <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="E7" s="20">
+        <v>15</v>
+      </c>
+      <c r="F7" s="20">
+        <v>40</v>
+      </c>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>128</v>
       </c>
@@ -3879,19 +3801,20 @@
         <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8">
+        <v>188</v>
+      </c>
+      <c r="E8" s="20">
         <v>13</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -3899,19 +3822,20 @@
         <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9">
+        <v>188</v>
+      </c>
+      <c r="E9" s="20">
         <v>13</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -3919,19 +3843,20 @@
         <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10">
+        <v>188</v>
+      </c>
+      <c r="E10" s="20">
         <v>15</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="20">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>131</v>
       </c>
@@ -3939,17 +3864,18 @@
         <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11">
+        <v>188</v>
+      </c>
+      <c r="E11" s="20">
         <v>15</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="20">
         <v>30</v>
       </c>
+      <c r="G11" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3966,9 +3892,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4011,9 +3937,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4056,13 +3982,13 @@
       <selection activeCell="A41" sqref="A41:B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -4073,7 +3999,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4084,7 +4010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -4095,7 +4021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -4106,7 +4032,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -4117,7 +4043,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -4128,7 +4054,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -4139,7 +4065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -4150,7 +4076,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -4161,7 +4087,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -4172,7 +4098,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -4183,7 +4109,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -4194,7 +4120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -4205,7 +4131,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="68" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -4216,7 +4142,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -4227,7 +4153,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -4238,7 +4164,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -4249,7 +4175,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -4260,7 +4186,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -4271,7 +4197,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -4282,7 +4208,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -4293,7 +4219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -4304,7 +4230,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -4315,7 +4241,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -4326,7 +4252,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -4337,7 +4263,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -4348,7 +4274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="136" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -4359,7 +4285,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -4370,7 +4296,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -4381,7 +4307,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -4392,7 +4318,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>141</v>
       </c>
@@ -4403,7 +4329,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -4414,7 +4340,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -4425,7 +4351,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -4436,7 +4362,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="51" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -4447,7 +4373,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>146</v>
       </c>
@@ -4458,7 +4384,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -4469,7 +4395,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -4480,7 +4406,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -4491,7 +4417,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -4502,7 +4428,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -4513,7 +4439,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -4524,7 +4450,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="34" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>153</v>
       </c>

--- a/doc/Team2Report.xlsx
+++ b/doc/Team2Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kybeth/Documents/GitHub/SSW555-GEDCOM-Develop-Team02/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77076270-BFE7-3F47-AFC1-589414B11C0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F264F38-5889-5B4D-8211-F887C471E106}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28380" windowHeight="15580" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28380" windowHeight="15580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2064,8 +2064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C6" sqref="B1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3116,7 +3116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>

--- a/doc/Team2Report.xlsx
+++ b/doc/Team2Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kybeth/Documents/GitHub/SSW555-GEDCOM-Develop-Team02/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F264F38-5889-5B4D-8211-F887C471E106}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BDCACF-1434-A24F-8643-9C13B21A7EFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28380" windowHeight="15580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37720" yWindow="3400" windowWidth="28380" windowHeight="19920" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="224">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -729,6 +729,15 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Mess with the github</t>
+  </si>
+  <si>
+    <t>Start early</t>
+  </si>
+  <si>
+    <t>Refactor to use class structure and build automated test</t>
   </si>
 </sst>
 </file>
@@ -870,7 +879,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -908,6 +917,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1161,6 +1174,9 @@
                 <c:pt idx="1">
                   <c:v>42277</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>42291</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1175,6 +1191,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2064,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="B1:C6"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2201,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3114,10 +3133,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3182,6 +3201,27 @@
         <v>19.047619047619047</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>42291</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>627</v>
+      </c>
+      <c r="E4">
+        <v>1090</v>
+      </c>
+      <c r="F4" s="9">
+        <f>(D4-D3)/E4*60</f>
+        <v>29.009174311926607</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3194,8 +3234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3626,14 +3666,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
@@ -3686,7 +3727,15 @@
       <c r="F2" s="20">
         <v>45</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="20">
+        <v>23</v>
+      </c>
+      <c r="H2" s="20">
+        <v>360</v>
+      </c>
+      <c r="I2" s="22">
+        <v>42291</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -3707,7 +3756,15 @@
       <c r="F3" s="20">
         <v>45</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="20">
+        <v>23</v>
+      </c>
+      <c r="H3" s="20">
+        <v>360</v>
+      </c>
+      <c r="I3" s="22">
+        <v>42291</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -3728,7 +3785,15 @@
       <c r="F4" s="20">
         <v>40</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="20">
+        <v>20</v>
+      </c>
+      <c r="H4" s="20">
+        <v>30</v>
+      </c>
+      <c r="I4" s="22">
+        <v>42291</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -3749,7 +3814,15 @@
       <c r="F5" s="20">
         <v>40</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="20">
+        <v>15</v>
+      </c>
+      <c r="H5" s="20">
+        <v>30</v>
+      </c>
+      <c r="I5" s="22">
+        <v>42291</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -3770,7 +3843,15 @@
       <c r="F6" s="20">
         <v>40</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="20">
+        <v>12</v>
+      </c>
+      <c r="H6" s="20">
+        <v>30</v>
+      </c>
+      <c r="I6" s="22">
+        <v>42291</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -3791,7 +3872,15 @@
       <c r="F7" s="20">
         <v>40</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="20">
+        <v>11</v>
+      </c>
+      <c r="H7" s="20">
+        <v>30</v>
+      </c>
+      <c r="I7" s="22">
+        <v>42291</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -3812,7 +3901,15 @@
       <c r="F8" s="20">
         <v>30</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="20">
+        <v>11</v>
+      </c>
+      <c r="H8" s="20">
+        <v>90</v>
+      </c>
+      <c r="I8" s="22">
+        <v>42291</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -3833,7 +3930,15 @@
       <c r="F9" s="20">
         <v>30</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="20">
+        <v>13</v>
+      </c>
+      <c r="H9" s="20">
+        <v>60</v>
+      </c>
+      <c r="I9" s="22">
+        <v>42291</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -3854,7 +3959,15 @@
       <c r="F10" s="20">
         <v>30</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="20">
+        <v>19</v>
+      </c>
+      <c r="H10" s="20">
+        <v>80</v>
+      </c>
+      <c r="I10" s="22">
+        <v>42291</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -3875,7 +3988,67 @@
       <c r="F11" s="20">
         <v>30</v>
       </c>
-      <c r="G11" s="20"/>
+      <c r="G11" s="20">
+        <v>20</v>
+      </c>
+      <c r="H11" s="20">
+        <v>20</v>
+      </c>
+      <c r="I11" s="22">
+        <v>42291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H12">
+        <f xml:space="preserve"> SUM(H2:H11)</f>
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="43" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>221</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3886,13 +4059,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
@@ -3921,6 +4099,206 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3978,8 +4356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:B41"/>
+    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/doc/Team2Report.xlsx
+++ b/doc/Team2Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kybeth/Documents/GitHub/SSW555-GEDCOM-Develop-Team02/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BDCACF-1434-A24F-8643-9C13B21A7EFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DDAEF4-CC7B-0545-9753-3AE298995E4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37720" yWindow="3400" windowWidth="28380" windowHeight="19920" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42080" yWindow="5660" windowWidth="28380" windowHeight="19920" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="242">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -738,6 +738,60 @@
   </si>
   <si>
     <t>Refactor to use class structure and build automated test</t>
+  </si>
+  <si>
+    <t>33-36</t>
+  </si>
+  <si>
+    <t>15-23</t>
+  </si>
+  <si>
+    <t>29-34</t>
+  </si>
+  <si>
+    <t>main.py</t>
+  </si>
+  <si>
+    <t>test.py</t>
+  </si>
+  <si>
+    <t>test_US22</t>
+  </si>
+  <si>
+    <t>test_US21</t>
+  </si>
+  <si>
+    <t>test_US23</t>
+  </si>
+  <si>
+    <t>test_US24</t>
+  </si>
+  <si>
+    <t>test_US25</t>
+  </si>
+  <si>
+    <t>test_US26</t>
+  </si>
+  <si>
+    <t>test_US27</t>
+  </si>
+  <si>
+    <t>test_US28</t>
+  </si>
+  <si>
+    <t>test_US29</t>
+  </si>
+  <si>
+    <t>test_US30</t>
+  </si>
+  <si>
+    <t>Write each one's code in different area to avoid conflicting</t>
+  </si>
+  <si>
+    <t>Spliting tasks in a sprint into smaller phases, and assign ddl to each phase</t>
+  </si>
+  <si>
+    <t>Writing tons of code without enough comments. This really makes it hard for team members to understand your code</t>
   </si>
 </sst>
 </file>
@@ -1177,6 +1231,9 @@
                 <c:pt idx="2">
                   <c:v>42291</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42305</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1194,6 +1251,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2220,7 +2280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="150" workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
@@ -3133,10 +3193,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3222,6 +3282,17 @@
         <v>29.009174311926607</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>42305</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3234,8 +3305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:R15"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4004,7 +4075,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -4017,7 +4088,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>31</v>
       </c>
@@ -4040,7 +4111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="42" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" ht="28" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>219</v>
       </c>
@@ -4059,10 +4130,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4072,7 +4143,7 @@
     <col min="4" max="4" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4100,8 +4171,27 @@
       <c r="I1" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" s="17"/>
+      <c r="O1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -4120,8 +4210,33 @@
       <c r="F2">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L2" t="s">
+        <v>132</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -4140,8 +4255,29 @@
       <c r="F3">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>120</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q3" s="17"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -4160,8 +4296,32 @@
       <c r="F4">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4" s="22">
+        <v>42304</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -4180,8 +4340,32 @@
       <c r="F5">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5" s="22">
+        <v>42304</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L5" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="P5" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -4200,13 +4384,34 @@
       <c r="F6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q6" s="17"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
         <v>185</v>
@@ -4220,8 +4425,29 @@
       <c r="F7">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q7" s="17"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>138</v>
       </c>
@@ -4240,8 +4466,36 @@
       <c r="F8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8" s="22">
+        <v>42304</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L8" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q8" s="18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -4260,8 +4514,32 @@
       <c r="F9">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9" s="22">
+        <v>42304</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L9" t="s">
+        <v>139</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q9" s="17"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -4280,8 +4558,32 @@
       <c r="F10">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10" s="22">
+        <v>42304</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q10" s="17"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>141</v>
       </c>
@@ -4300,6 +4602,78 @@
       <c r="F11">
         <v>60</v>
       </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11" s="22">
+        <v>42304</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L11" t="s">
+        <v>141</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q11" s="17"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+    </row>
+    <row r="14" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="42" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="42" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="70" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4309,13 +4683,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
@@ -4344,6 +4722,170 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4356,8 +4898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A36" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/doc/Team2Report.xlsx
+++ b/doc/Team2Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kybeth/Documents/GitHub/SSW555-GEDCOM-Develop-Team02/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DDAEF4-CC7B-0545-9753-3AE298995E4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635F7F91-0118-DC4D-AC33-8640EFAB2FB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42080" yWindow="5660" windowWidth="28380" windowHeight="19920" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40420" yWindow="5660" windowWidth="28380" windowHeight="19920" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -4132,7 +4132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -4695,7 +4695,7 @@
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4898,8 +4898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/doc/Team2Report.xlsx
+++ b/doc/Team2Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kybeth/Documents/GitHub/SSW555-GEDCOM-Develop-Team02/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635F7F91-0118-DC4D-AC33-8640EFAB2FB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851A636F-9474-F94D-833F-6E9E5380BF66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40420" yWindow="5660" windowWidth="28380" windowHeight="19920" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37380" yWindow="4520" windowWidth="28380" windowHeight="19920" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="259">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -740,15 +740,6 @@
     <t>Refactor to use class structure and build automated test</t>
   </si>
   <si>
-    <t>33-36</t>
-  </si>
-  <si>
-    <t>15-23</t>
-  </si>
-  <si>
-    <t>29-34</t>
-  </si>
-  <si>
     <t>main.py</t>
   </si>
   <si>
@@ -792,6 +783,66 @@
   </si>
   <si>
     <t>Writing tons of code without enough comments. This really makes it hard for team members to understand your code</t>
+  </si>
+  <si>
+    <t>157-169</t>
+  </si>
+  <si>
+    <t>172-194</t>
+  </si>
+  <si>
+    <t>299-312</t>
+  </si>
+  <si>
+    <t>317-332</t>
+  </si>
+  <si>
+    <t>390-400</t>
+  </si>
+  <si>
+    <t>402-415</t>
+  </si>
+  <si>
+    <t>501-509</t>
+  </si>
+  <si>
+    <t>511-519</t>
+  </si>
+  <si>
+    <t>270-279</t>
+  </si>
+  <si>
+    <t>281-295</t>
+  </si>
+  <si>
+    <t>113-118</t>
+  </si>
+  <si>
+    <t>120-125</t>
+  </si>
+  <si>
+    <t>127-130</t>
+  </si>
+  <si>
+    <t>132-135</t>
+  </si>
+  <si>
+    <t>65-73</t>
+  </si>
+  <si>
+    <t>55-63</t>
+  </si>
+  <si>
+    <t>151-154</t>
+  </si>
+  <si>
+    <t>156-161</t>
+  </si>
+  <si>
+    <t>165-169</t>
+  </si>
+  <si>
+    <t>171-174</t>
   </si>
 </sst>
 </file>
@@ -3196,7 +3247,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3291,6 +3342,16 @@
       </c>
       <c r="C5">
         <v>10</v>
+      </c>
+      <c r="D5">
+        <v>575</v>
+      </c>
+      <c r="E5">
+        <v>310</v>
+      </c>
+      <c r="F5" s="9">
+        <f>(D5-D4)/E5*60</f>
+        <v>-10.064516129032258</v>
       </c>
     </row>
   </sheetData>
@@ -4133,7 +4194,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4216,24 +4277,27 @@
       <c r="H2">
         <v>60</v>
       </c>
+      <c r="I2" s="22">
+        <v>42305</v>
+      </c>
       <c r="K2" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L2" t="s">
         <v>132</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="N2" s="17"/>
       <c r="O2" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -4261,21 +4325,28 @@
       <c r="H3">
         <v>120</v>
       </c>
+      <c r="I3" s="22">
+        <v>42305</v>
+      </c>
       <c r="K3" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L3" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="17"/>
+      <c r="M3" s="17" t="s">
+        <v>240</v>
+      </c>
       <c r="N3" s="17"/>
       <c r="O3" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q3" s="17"/>
+        <v>226</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -4306,20 +4377,24 @@
         <v>42304</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L4" t="s">
         <v>134</v>
       </c>
-      <c r="M4" s="17"/>
+      <c r="M4" s="17" t="s">
+        <v>247</v>
+      </c>
       <c r="N4" s="17"/>
       <c r="O4" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="P4" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="P4" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="17" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -4350,20 +4425,24 @@
         <v>42304</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L5" t="s">
         <v>135</v>
       </c>
-      <c r="M5" s="17"/>
+      <c r="M5" s="17" t="s">
+        <v>248</v>
+      </c>
       <c r="N5" s="17"/>
       <c r="O5" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q5" s="17"/>
+        <v>229</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
@@ -4390,21 +4469,28 @@
       <c r="H6">
         <v>15</v>
       </c>
+      <c r="I6" s="22">
+        <v>42305</v>
+      </c>
       <c r="K6" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L6" t="s">
         <v>136</v>
       </c>
-      <c r="M6" s="17"/>
+      <c r="M6" s="17" t="s">
+        <v>241</v>
+      </c>
       <c r="N6" s="17"/>
       <c r="O6" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q6" s="17"/>
+        <v>230</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
@@ -4431,21 +4517,28 @@
       <c r="H7">
         <v>20</v>
       </c>
+      <c r="I7" s="22">
+        <v>42305</v>
+      </c>
       <c r="K7" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L7" t="s">
         <v>137</v>
       </c>
-      <c r="M7" s="17"/>
+      <c r="M7" s="17" t="s">
+        <v>242</v>
+      </c>
       <c r="N7" s="17"/>
       <c r="O7" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q7" s="17"/>
+        <v>231</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -4476,23 +4569,23 @@
         <v>42304</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L8" t="s">
         <v>138</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="N8" s="17"/>
       <c r="O8" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -4524,20 +4617,24 @@
         <v>42304</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L9" t="s">
         <v>139</v>
       </c>
-      <c r="M9" s="17"/>
+      <c r="M9" s="17" t="s">
+        <v>244</v>
+      </c>
       <c r="N9" s="17"/>
       <c r="O9" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P9" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q9" s="17"/>
+        <v>233</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -4568,20 +4665,24 @@
         <v>42304</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L10" t="s">
         <v>140</v>
       </c>
-      <c r="M10" s="17"/>
+      <c r="M10" s="17" t="s">
+        <v>245</v>
+      </c>
       <c r="N10" s="17"/>
       <c r="O10" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q10" s="17"/>
+        <v>234</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -4612,22 +4713,30 @@
         <v>42304</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L11" t="s">
         <v>141</v>
       </c>
-      <c r="M11" s="17"/>
+      <c r="M11" s="17" t="s">
+        <v>246</v>
+      </c>
       <c r="N11" s="17"/>
       <c r="O11" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q11" s="17"/>
+        <v>235</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>310</v>
+      </c>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="17"/>
@@ -4651,12 +4760,12 @@
     </row>
     <row r="17" spans="2:2" ht="42" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="42" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
@@ -4669,7 +4778,7 @@
     </row>
     <row r="21" spans="2:2" ht="70" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
@@ -4685,8 +4794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4806,16 +4915,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
         <v>185</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>188</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -4831,6 +4946,12 @@
       <c r="D7" s="19" t="s">
         <v>188</v>
       </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -4845,6 +4966,12 @@
       <c r="D8" s="19" t="s">
         <v>188</v>
       </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -4859,6 +4986,12 @@
       <c r="D9" s="19" t="s">
         <v>188</v>
       </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -4873,6 +5006,12 @@
       <c r="D10" s="19" t="s">
         <v>188</v>
       </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -4886,6 +5025,12 @@
       </c>
       <c r="D11" s="19" t="s">
         <v>188</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4898,8 +5043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A33" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/doc/Team2Report.xlsx
+++ b/doc/Team2Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kybeth/Documents/GitHub/SSW555-GEDCOM-Develop-Team02/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851A636F-9474-F94D-833F-6E9E5380BF66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D47E8E9-8CF3-B44C-B5F8-0756B19B83B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37380" yWindow="4520" windowWidth="28380" windowHeight="19920" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6500" yWindow="560" windowWidth="49580" windowHeight="28100" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="282">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -843,6 +843,75 @@
   </si>
   <si>
     <t>171-174</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Each team member owns an area in the code file so that it won't cause conflict when merging with others</t>
+  </si>
+  <si>
+    <t>Doing things without early planning</t>
+  </si>
+  <si>
+    <t>Updating test file too late. This makes others have to update automated test again and again</t>
+  </si>
+  <si>
+    <t>591-607</t>
+  </si>
+  <si>
+    <t>519-551</t>
+  </si>
+  <si>
+    <t>285-308</t>
+  </si>
+  <si>
+    <t>311-316</t>
+  </si>
+  <si>
+    <t>419-439</t>
+  </si>
+  <si>
+    <t>442-463</t>
+  </si>
+  <si>
+    <t>693-709</t>
+  </si>
+  <si>
+    <t>711-724</t>
+  </si>
+  <si>
+    <t>846-866</t>
+  </si>
+  <si>
+    <t>868-873</t>
+  </si>
+  <si>
+    <t>test_US31</t>
+  </si>
+  <si>
+    <t>test_US32</t>
+  </si>
+  <si>
+    <t>test_US33</t>
+  </si>
+  <si>
+    <t>test_US34</t>
+  </si>
+  <si>
+    <t>test_US36</t>
+  </si>
+  <si>
+    <t>test_US37</t>
+  </si>
+  <si>
+    <t>test_US38</t>
+  </si>
+  <si>
+    <t>test_US39</t>
+  </si>
+  <si>
+    <t>test_US40</t>
   </si>
 </sst>
 </file>
@@ -984,7 +1053,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1026,6 +1095,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1285,6 +1357,9 @@
                 <c:pt idx="3">
                   <c:v>42305</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>42319</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1305,6 +1380,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2331,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2545,7 +2623,7 @@
         <v>183</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -2562,7 +2640,7 @@
         <v>183</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -2579,7 +2657,7 @@
         <v>184</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -2596,7 +2674,7 @@
         <v>184</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -2613,7 +2691,7 @@
         <v>185</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -2630,7 +2708,7 @@
         <v>185</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -2647,7 +2725,7 @@
         <v>186</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -2664,7 +2742,7 @@
         <v>186</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -2681,7 +2759,7 @@
         <v>187</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -2698,7 +2776,7 @@
         <v>187</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -2715,7 +2793,7 @@
         <v>183</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -2732,7 +2810,7 @@
         <v>183</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -2749,7 +2827,7 @@
         <v>184</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -2766,7 +2844,7 @@
         <v>184</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -2783,7 +2861,7 @@
         <v>185</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -2800,7 +2878,7 @@
         <v>185</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -2817,7 +2895,7 @@
         <v>186</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -2834,7 +2912,7 @@
         <v>186</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -2851,7 +2929,7 @@
         <v>187</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -2868,7 +2946,7 @@
         <v>187</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -2885,7 +2963,7 @@
         <v>183</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -2902,7 +2980,7 @@
         <v>183</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -2919,7 +2997,7 @@
         <v>184</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -2936,7 +3014,7 @@
         <v>184</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -2953,7 +3031,7 @@
         <v>185</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -2970,7 +3048,7 @@
         <v>185</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -2987,7 +3065,7 @@
         <v>186</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -3004,7 +3082,7 @@
         <v>186</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -3021,7 +3099,7 @@
         <v>187</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -3038,7 +3116,7 @@
         <v>187</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3244,10 +3322,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3352,6 +3430,23 @@
       <c r="F5" s="9">
         <f>(D5-D4)/E5*60</f>
         <v>-10.064516129032258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>42319</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>943</v>
+      </c>
+      <c r="E6">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -4194,7 +4289,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B14" sqref="B14:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4792,10 +4887,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="Q11" sqref="Q2:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4804,7 +4899,7 @@
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4832,8 +4927,27 @@
       <c r="I1" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="K1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" s="17"/>
+      <c r="O1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -4844,7 +4958,7 @@
         <v>183</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -4852,8 +4966,34 @@
       <c r="F2">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G2">
+        <v>24</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2" s="22">
+        <v>42318</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="L2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="N2" s="17"/>
+      <c r="O2" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q2" s="18"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>143</v>
       </c>
@@ -4864,7 +5004,7 @@
         <v>183</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -4872,8 +5012,34 @@
       <c r="F3">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3" s="22">
+        <v>42316</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="L3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q3" s="17"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>144</v>
       </c>
@@ -4884,7 +5050,7 @@
         <v>184</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="E4">
         <v>19</v>
@@ -4892,8 +5058,34 @@
       <c r="F4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G4">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>49</v>
+      </c>
+      <c r="I4" s="22">
+        <v>42319</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="L4" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>145</v>
       </c>
@@ -4904,7 +5096,7 @@
         <v>184</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -4912,19 +5104,45 @@
       <c r="F5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B6" t="s">
-        <v>108</v>
+      <c r="G5">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5" s="22">
+        <v>42319</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="L5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q5" s="17"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>185</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="E6">
         <v>19</v>
@@ -4932,8 +5150,34 @@
       <c r="F6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G6">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6" s="22">
+        <v>42316</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q6" s="17"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>147</v>
       </c>
@@ -4944,7 +5188,7 @@
         <v>185</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -4952,8 +5196,34 @@
       <c r="F7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G7">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" s="22">
+        <v>42316</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="L7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="N7" s="17"/>
+      <c r="O7" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q7" s="17"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>148</v>
       </c>
@@ -4964,7 +5234,7 @@
         <v>186</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="E8">
         <v>20</v>
@@ -4972,8 +5242,34 @@
       <c r="F8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8" s="22">
+        <v>42317</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="L8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>149</v>
       </c>
@@ -4984,7 +5280,7 @@
         <v>186</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -4992,8 +5288,34 @@
       <c r="F9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>40</v>
+      </c>
+      <c r="I9" s="22">
+        <v>42317</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="L9" t="s">
+        <v>149</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="O9" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q9" s="17"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>150</v>
       </c>
@@ -5004,7 +5326,7 @@
         <v>187</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -5012,8 +5334,34 @@
       <c r="F10">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G10">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10" s="22">
+        <v>42316</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="L10" t="s">
+        <v>150</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>151</v>
       </c>
@@ -5024,13 +5372,87 @@
         <v>187</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="E11">
         <v>20</v>
       </c>
       <c r="F11">
         <v>30</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>70</v>
+      </c>
+      <c r="I11" s="22">
+        <v>42316</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="L11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q11" s="17"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H12" s="23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <f>SUM(H2:H11)</f>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" ht="14" x14ac:dyDescent="0.15">
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="56" x14ac:dyDescent="0.15">
+      <c r="B16" s="21" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="B20" s="21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="42" x14ac:dyDescent="0.15">
+      <c r="B21" s="21" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5043,8 +5465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:B42"/>
+    <sheetView topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5343,7 +5765,7 @@
       <c r="A27" t="s">
         <v>137</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C27" s="12" t="s">

--- a/doc/Team2Report.xlsx
+++ b/doc/Team2Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kybeth/Documents/GitHub/SSW555-GEDCOM-Develop-Team02/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D47E8E9-8CF3-B44C-B5F8-0756B19B83B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C5860B-9FDF-6843-B017-4C33256C3891}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6500" yWindow="560" windowWidth="49580" windowHeight="28100" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="291">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -912,6 +912,33 @@
   </si>
   <si>
     <t>test_US40</t>
+  </si>
+  <si>
+    <t>49-52</t>
+  </si>
+  <si>
+    <t>54-63</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>291-295</t>
+  </si>
+  <si>
+    <t>302-305</t>
+  </si>
+  <si>
+    <t>190-193</t>
+  </si>
+  <si>
+    <t>195-198</t>
+  </si>
+  <si>
+    <t>246-251</t>
+  </si>
+  <si>
+    <t>253-258</t>
   </si>
 </sst>
 </file>
@@ -922,7 +949,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -960,6 +987,11 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1053,7 +1085,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1098,6 +1130,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4890,7 +4923,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q2:Q11"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4947,7 +4980,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>142</v>
       </c>
@@ -4991,7 +5024,9 @@
       <c r="P2" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="Q2" s="18"/>
+      <c r="Q2" s="24" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
@@ -5037,7 +5072,9 @@
       <c r="P3" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="Q3" s="17"/>
+      <c r="Q3" s="18" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -5083,7 +5120,9 @@
       <c r="P4" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="18" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
@@ -5129,7 +5168,9 @@
       <c r="P5" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="Q5" s="17"/>
+      <c r="Q5" s="18" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
@@ -5175,9 +5216,11 @@
       <c r="P6" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="Q6" s="17"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="Q6" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>147</v>
       </c>
@@ -5221,7 +5264,9 @@
       <c r="P7" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="Q7" s="17"/>
+      <c r="Q7" s="24" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
@@ -5267,7 +5312,9 @@
       <c r="P8" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="Q8" s="18"/>
+      <c r="Q8" s="18" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -5313,7 +5360,9 @@
       <c r="P9" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="Q9" s="17"/>
+      <c r="Q9" s="18" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
@@ -5359,7 +5408,9 @@
       <c r="P10" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="Q10" s="18"/>
+      <c r="Q10" s="18" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
@@ -5405,7 +5456,9 @@
       <c r="P11" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="Q11" s="17"/>
+      <c r="Q11" s="18" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="H12" s="23" t="s">
